--- a/data/harvest_by_year/harvest_by_year_clean/2012-stats-recolte.xlsx
+++ b/data/harvest_by_year/harvest_by_year_clean/2012-stats-recolte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:V97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,6 +545,6646 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>O1 AIN</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>819</v>
+      </c>
+      <c r="C2" t="n">
+        <v>864</v>
+      </c>
+      <c r="D2" t="n">
+        <v>542</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>18</v>
+      </c>
+      <c r="G2" t="n">
+        <v>304</v>
+      </c>
+      <c r="H2" t="n">
+        <v>10682</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2363.17</v>
+      </c>
+      <c r="J2" t="n">
+        <v>11040</v>
+      </c>
+      <c r="K2" t="n">
+        <v>617.8099999999999</v>
+      </c>
+      <c r="L2" t="n">
+        <v>112.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>126</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3488.55</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3365.29</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5654.86</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>14788.36</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5840.96</v>
+      </c>
+      <c r="S2" t="n">
+        <v>16820.86</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>252.74</v>
+      </c>
+      <c r="V2" t="n">
+        <v>37702.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>O2 AISNE</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>833</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2449</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2442</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>121920.97</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>169.86</v>
+      </c>
+      <c r="O3" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>122090.83</v>
+      </c>
+      <c r="R3" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1679.97</v>
+      </c>
+      <c r="V3" t="n">
+        <v>123780.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>O3 ALLIER</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>368</v>
+      </c>
+      <c r="C4" t="n">
+        <v>697</v>
+      </c>
+      <c r="D4" t="n">
+        <v>554</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" t="n">
+        <v>137</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5711.75</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11196</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2970</v>
+      </c>
+      <c r="K4" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="L4" t="n">
+        <v>99.81999999999999</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>537</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1059.83</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1488.25</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>6303.55</v>
+      </c>
+      <c r="R4" t="n">
+        <v>12355.65</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4458.25</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>374.48</v>
+      </c>
+      <c r="V4" t="n">
+        <v>23491.93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>04 ALPES-HTE-PR</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>136</v>
+      </c>
+      <c r="C5" t="n">
+        <v>697</v>
+      </c>
+      <c r="D5" t="n">
+        <v>252</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>350</v>
+      </c>
+      <c r="G5" t="n">
+        <v>95</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1335.22</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3038</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7201</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2744.58</v>
+      </c>
+      <c r="L5" t="n">
+        <v>6957.07</v>
+      </c>
+      <c r="M5" t="n">
+        <v>11489.02</v>
+      </c>
+      <c r="N5" t="n">
+        <v>350</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1398</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5023.12</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4429.8</v>
+      </c>
+      <c r="R5" t="n">
+        <v>11393.07</v>
+      </c>
+      <c r="S5" t="n">
+        <v>23713.14</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1353.69</v>
+      </c>
+      <c r="V5" t="n">
+        <v>40889.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>O5 ALPES-HAUTES</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>160</v>
+      </c>
+      <c r="C6" t="n">
+        <v>110</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>85</v>
+      </c>
+      <c r="G6" t="n">
+        <v>25</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>705.42</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1186</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1026</v>
+      </c>
+      <c r="N6" t="n">
+        <v>53</v>
+      </c>
+      <c r="O6" t="n">
+        <v>285</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>758.42</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1471</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1030.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>157.18</v>
+      </c>
+      <c r="V6" t="n">
+        <v>3417.1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>O6 ALPES-Mmes</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>120</v>
+      </c>
+      <c r="C7" t="n">
+        <v>96</v>
+      </c>
+      <c r="D7" t="n">
+        <v>55</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>23</v>
+      </c>
+      <c r="G7" t="n">
+        <v>18</v>
+      </c>
+      <c r="H7" t="n">
+        <v>473.03</v>
+      </c>
+      <c r="I7" t="n">
+        <v>467.07</v>
+      </c>
+      <c r="J7" t="n">
+        <v>388</v>
+      </c>
+      <c r="K7" t="n">
+        <v>185</v>
+      </c>
+      <c r="L7" t="n">
+        <v>341</v>
+      </c>
+      <c r="M7" t="n">
+        <v>164</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="O7" t="n">
+        <v>313.95</v>
+      </c>
+      <c r="P7" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>669.9299999999999</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1122.02</v>
+      </c>
+      <c r="S7" t="n">
+        <v>567</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>43.95</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2402.9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>O7 ARDECHE</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2225</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10489</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2650</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7231</v>
+      </c>
+      <c r="G8" t="n">
+        <v>608</v>
+      </c>
+      <c r="H8" t="n">
+        <v>7782.31</v>
+      </c>
+      <c r="I8" t="n">
+        <v>89912.64999999999</v>
+      </c>
+      <c r="J8" t="n">
+        <v>7314</v>
+      </c>
+      <c r="K8" t="n">
+        <v>75857.78</v>
+      </c>
+      <c r="L8" t="n">
+        <v>315340</v>
+      </c>
+      <c r="M8" t="n">
+        <v>18082</v>
+      </c>
+      <c r="N8" t="n">
+        <v>10293.38</v>
+      </c>
+      <c r="O8" t="n">
+        <v>13950.77</v>
+      </c>
+      <c r="P8" t="n">
+        <v>643.15</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>93933.47</v>
+      </c>
+      <c r="R8" t="n">
+        <v>419203.42</v>
+      </c>
+      <c r="S8" t="n">
+        <v>26039.15</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>11575.01</v>
+      </c>
+      <c r="V8" t="n">
+        <v>550751.05</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>O8 ARDENNES</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="O9" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="R9" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>18.1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>O9 ARIEGE</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>59</v>
+      </c>
+      <c r="C10" t="n">
+        <v>200</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>48</v>
+      </c>
+      <c r="G10" t="n">
+        <v>152</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>158</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1245.94</v>
+      </c>
+      <c r="M10" t="n">
+        <v>337</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>324.13</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>158</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1570.07</v>
+      </c>
+      <c r="S10" t="n">
+        <v>338</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2092.65</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10 AUBE</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2805</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7018</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6993</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>25</v>
+      </c>
+      <c r="H11" t="n">
+        <v>397347.62</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>204.37</v>
+      </c>
+      <c r="O11" t="n">
+        <v>419.53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>153.9</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>397551.99</v>
+      </c>
+      <c r="R11" t="n">
+        <v>419.53</v>
+      </c>
+      <c r="S11" t="n">
+        <v>153.9</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>6219.99</v>
+      </c>
+      <c r="V11" t="n">
+        <v>404345.41</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11 AUDE</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5985</v>
+      </c>
+      <c r="C12" t="n">
+        <v>64435</v>
+      </c>
+      <c r="D12" t="n">
+        <v>19624</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>41116</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3695</v>
+      </c>
+      <c r="H12" t="n">
+        <v>105067.29</v>
+      </c>
+      <c r="I12" t="n">
+        <v>573870.0699999999</v>
+      </c>
+      <c r="J12" t="n">
+        <v>52361.19</v>
+      </c>
+      <c r="K12" t="n">
+        <v>427063.58</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1947163.37</v>
+      </c>
+      <c r="M12" t="n">
+        <v>172000.61</v>
+      </c>
+      <c r="N12" t="n">
+        <v>32597.56</v>
+      </c>
+      <c r="O12" t="n">
+        <v>149609.27</v>
+      </c>
+      <c r="P12" t="n">
+        <v>24669.22</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>564728.4300000001</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2670642.71</v>
+      </c>
+      <c r="S12" t="n">
+        <v>249031.02</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>49574.61</v>
+      </c>
+      <c r="V12" t="n">
+        <v>3533976.77</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12 AVEYRON</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1044</v>
+      </c>
+      <c r="C13" t="n">
+        <v>622</v>
+      </c>
+      <c r="D13" t="n">
+        <v>279</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>33</v>
+      </c>
+      <c r="G13" t="n">
+        <v>310</v>
+      </c>
+      <c r="H13" t="n">
+        <v>304</v>
+      </c>
+      <c r="I13" t="n">
+        <v>8897</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1964</v>
+      </c>
+      <c r="K13" t="n">
+        <v>81.39</v>
+      </c>
+      <c r="L13" t="n">
+        <v>651.67</v>
+      </c>
+      <c r="M13" t="n">
+        <v>75.34999999999999</v>
+      </c>
+      <c r="N13" t="n">
+        <v>187.62</v>
+      </c>
+      <c r="O13" t="n">
+        <v>4820.49</v>
+      </c>
+      <c r="P13" t="n">
+        <v>132.95</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>573.01</v>
+      </c>
+      <c r="R13" t="n">
+        <v>14369.16</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2172.3</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>272.2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>17386.67</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13 BOUCHES-DU-R</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1334</v>
+      </c>
+      <c r="C14" t="n">
+        <v>10051</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6600</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3175</v>
+      </c>
+      <c r="G14" t="n">
+        <v>276</v>
+      </c>
+      <c r="H14" t="n">
+        <v>17206</v>
+      </c>
+      <c r="I14" t="n">
+        <v>50291.44</v>
+      </c>
+      <c r="J14" t="n">
+        <v>244310.59</v>
+      </c>
+      <c r="K14" t="n">
+        <v>15214.52</v>
+      </c>
+      <c r="L14" t="n">
+        <v>79688.81</v>
+      </c>
+      <c r="M14" t="n">
+        <v>108787.09</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1778.98</v>
+      </c>
+      <c r="O14" t="n">
+        <v>9629.469999999999</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2350.72</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>34199.5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>139609.72</v>
+      </c>
+      <c r="S14" t="n">
+        <v>355448.4</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>19468.21</v>
+      </c>
+      <c r="V14" t="n">
+        <v>548725.83</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14 CALVADOS</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>92</v>
+      </c>
+      <c r="L15" t="n">
+        <v>7</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="n">
+        <v>92</v>
+      </c>
+      <c r="R15" t="n">
+        <v>7</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>104.4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15 CANTAL</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>22</v>
+      </c>
+      <c r="C16" t="n">
+        <v>11</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>6</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>17</v>
+      </c>
+      <c r="I16" t="n">
+        <v>49</v>
+      </c>
+      <c r="J16" t="n">
+        <v>22</v>
+      </c>
+      <c r="K16" t="n">
+        <v>33</v>
+      </c>
+      <c r="L16" t="n">
+        <v>87</v>
+      </c>
+      <c r="M16" t="n">
+        <v>13</v>
+      </c>
+      <c r="N16" t="n">
+        <v>5</v>
+      </c>
+      <c r="O16" t="n">
+        <v>64</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>55</v>
+      </c>
+      <c r="R16" t="n">
+        <v>200</v>
+      </c>
+      <c r="S16" t="n">
+        <v>35</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>6</v>
+      </c>
+      <c r="V16" t="n">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16 CHARENTE</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3921</v>
+      </c>
+      <c r="C17" t="n">
+        <v>39024</v>
+      </c>
+      <c r="D17" t="n">
+        <v>128</v>
+      </c>
+      <c r="E17" t="n">
+        <v>37414</v>
+      </c>
+      <c r="F17" t="n">
+        <v>447</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1035</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3711</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>3775</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4652</v>
+      </c>
+      <c r="L17" t="n">
+        <v>18403.85</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>20456.41</v>
+      </c>
+      <c r="O17" t="n">
+        <v>35775.37</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>28819.41</v>
+      </c>
+      <c r="R17" t="n">
+        <v>54179.22</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3778.1</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3640845</v>
+      </c>
+      <c r="U17" t="n">
+        <v>11554.05</v>
+      </c>
+      <c r="V17" t="n">
+        <v>3739175.78</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17 CHARENTE-MAR</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>5008</v>
+      </c>
+      <c r="C18" t="n">
+        <v>38785</v>
+      </c>
+      <c r="D18" t="n">
+        <v>834</v>
+      </c>
+      <c r="E18" t="n">
+        <v>35340</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1142</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1469</v>
+      </c>
+      <c r="H18" t="n">
+        <v>27293.86</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>33177.64</v>
+      </c>
+      <c r="K18" t="n">
+        <v>19879.94</v>
+      </c>
+      <c r="L18" t="n">
+        <v>39640.81</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>68622.99000000001</v>
+      </c>
+      <c r="O18" t="n">
+        <v>46132.58</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>115796.79</v>
+      </c>
+      <c r="R18" t="n">
+        <v>85773.39</v>
+      </c>
+      <c r="S18" t="n">
+        <v>33177.64</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3746367</v>
+      </c>
+      <c r="U18" t="n">
+        <v>18166.21</v>
+      </c>
+      <c r="V18" t="n">
+        <v>3999281.03</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18 CHER</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>809</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4085</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3924</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>36</v>
+      </c>
+      <c r="G19" t="n">
+        <v>125</v>
+      </c>
+      <c r="H19" t="n">
+        <v>174586.82</v>
+      </c>
+      <c r="I19" t="n">
+        <v>26162.49</v>
+      </c>
+      <c r="J19" t="n">
+        <v>12445.46</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1043.66</v>
+      </c>
+      <c r="L19" t="n">
+        <v>256.6</v>
+      </c>
+      <c r="M19" t="n">
+        <v>188.69</v>
+      </c>
+      <c r="N19" t="n">
+        <v>403.11</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1322.1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>342.1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>176033.59</v>
+      </c>
+      <c r="R19" t="n">
+        <v>27741.19</v>
+      </c>
+      <c r="S19" t="n">
+        <v>12976.25</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>326.94</v>
+      </c>
+      <c r="V19" t="n">
+        <v>217077.97</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19 CORREZE</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>751</v>
+      </c>
+      <c r="C20" t="n">
+        <v>205</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>69</v>
+      </c>
+      <c r="G20" t="n">
+        <v>136</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>406</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1138</v>
+      </c>
+      <c r="M20" t="n">
+        <v>374</v>
+      </c>
+      <c r="N20" t="n">
+        <v>8</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2813.5</v>
+      </c>
+      <c r="P20" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>414</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3951.5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>383.8</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>4749.3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2A CORSE SUD</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>75</v>
+      </c>
+      <c r="C21" t="n">
+        <v>854</v>
+      </c>
+      <c r="D21" t="n">
+        <v>706</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>45</v>
+      </c>
+      <c r="G21" t="n">
+        <v>103</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3257</v>
+      </c>
+      <c r="I21" t="n">
+        <v>10896</v>
+      </c>
+      <c r="J21" t="n">
+        <v>10020</v>
+      </c>
+      <c r="K21" t="n">
+        <v>316</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1161</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1303.5</v>
+      </c>
+      <c r="N21" t="n">
+        <v>309.69</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2286.35</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1202.38</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3882.69</v>
+      </c>
+      <c r="R21" t="n">
+        <v>14343.35</v>
+      </c>
+      <c r="S21" t="n">
+        <v>12525.88</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>748.27</v>
+      </c>
+      <c r="V21" t="n">
+        <v>31500.19</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2B CORSE(HTE)</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>272</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4952</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2224</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2495</v>
+      </c>
+      <c r="G22" t="n">
+        <v>233</v>
+      </c>
+      <c r="H22" t="n">
+        <v>10652.96</v>
+      </c>
+      <c r="I22" t="n">
+        <v>22830.98</v>
+      </c>
+      <c r="J22" t="n">
+        <v>55415.66</v>
+      </c>
+      <c r="K22" t="n">
+        <v>20779</v>
+      </c>
+      <c r="L22" t="n">
+        <v>47829</v>
+      </c>
+      <c r="M22" t="n">
+        <v>132101</v>
+      </c>
+      <c r="N22" t="n">
+        <v>11801</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1228</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3759.62</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>43232.96</v>
+      </c>
+      <c r="R22" t="n">
+        <v>71887.98</v>
+      </c>
+      <c r="S22" t="n">
+        <v>191276.28</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>5935.53</v>
+      </c>
+      <c r="V22" t="n">
+        <v>312332.75</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>21 COTE D'OR</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1748</v>
+      </c>
+      <c r="C23" t="n">
+        <v>9484</v>
+      </c>
+      <c r="D23" t="n">
+        <v>9379</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>38</v>
+      </c>
+      <c r="G23" t="n">
+        <v>67</v>
+      </c>
+      <c r="H23" t="n">
+        <v>108702.79</v>
+      </c>
+      <c r="I23" t="n">
+        <v>178437.94</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1598.84</v>
+      </c>
+      <c r="K23" t="n">
+        <v>456.77</v>
+      </c>
+      <c r="L23" t="n">
+        <v>312.13</v>
+      </c>
+      <c r="M23" t="n">
+        <v>70</v>
+      </c>
+      <c r="N23" t="n">
+        <v>552.42</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1014.05</v>
+      </c>
+      <c r="P23" t="n">
+        <v>66.97</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>109711.98</v>
+      </c>
+      <c r="R23" t="n">
+        <v>179764.12</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1735.81</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>3987.56</v>
+      </c>
+      <c r="V23" t="n">
+        <v>295199.47</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>22 COTES-D'ARMOR</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>23 CREUSE</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>24 DORDOGNE</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2513</v>
+      </c>
+      <c r="C26" t="n">
+        <v>12086</v>
+      </c>
+      <c r="D26" t="n">
+        <v>11063</v>
+      </c>
+      <c r="E26" t="n">
+        <v>12</v>
+      </c>
+      <c r="F26" t="n">
+        <v>164</v>
+      </c>
+      <c r="G26" t="n">
+        <v>847</v>
+      </c>
+      <c r="H26" t="n">
+        <v>190227.15</v>
+      </c>
+      <c r="I26" t="n">
+        <v>249152.47</v>
+      </c>
+      <c r="J26" t="n">
+        <v>52755.2</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2927.05</v>
+      </c>
+      <c r="L26" t="n">
+        <v>6467</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1669</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3936.73</v>
+      </c>
+      <c r="O26" t="n">
+        <v>16277.55</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1903.96</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>197090.93</v>
+      </c>
+      <c r="R26" t="n">
+        <v>271897.02</v>
+      </c>
+      <c r="S26" t="n">
+        <v>56328.16</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1100</v>
+      </c>
+      <c r="U26" t="n">
+        <v>15585.42</v>
+      </c>
+      <c r="V26" t="n">
+        <v>542001.53</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>25 DOUBS</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>169</v>
+      </c>
+      <c r="C27" t="n">
+        <v>36</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>19</v>
+      </c>
+      <c r="G27" t="n">
+        <v>17</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>202.38</v>
+      </c>
+      <c r="L27" t="n">
+        <v>16</v>
+      </c>
+      <c r="M27" t="n">
+        <v>17</v>
+      </c>
+      <c r="N27" t="n">
+        <v>200.98</v>
+      </c>
+      <c r="O27" t="n">
+        <v>224.84</v>
+      </c>
+      <c r="P27" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>403.36</v>
+      </c>
+      <c r="R27" t="n">
+        <v>240.84</v>
+      </c>
+      <c r="S27" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>689.8000000000001</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>26 DROME</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1989</v>
+      </c>
+      <c r="C28" t="n">
+        <v>16262</v>
+      </c>
+      <c r="D28" t="n">
+        <v>13948</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2083</v>
+      </c>
+      <c r="G28" t="n">
+        <v>231</v>
+      </c>
+      <c r="H28" t="n">
+        <v>110352.43</v>
+      </c>
+      <c r="I28" t="n">
+        <v>474680.67</v>
+      </c>
+      <c r="J28" t="n">
+        <v>13592.18</v>
+      </c>
+      <c r="K28" t="n">
+        <v>11530.86</v>
+      </c>
+      <c r="L28" t="n">
+        <v>81377.67999999999</v>
+      </c>
+      <c r="M28" t="n">
+        <v>9586.09</v>
+      </c>
+      <c r="N28" t="n">
+        <v>565.92</v>
+      </c>
+      <c r="O28" t="n">
+        <v>5526.38</v>
+      </c>
+      <c r="P28" t="n">
+        <v>479.86</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>122449.21</v>
+      </c>
+      <c r="R28" t="n">
+        <v>561584.73</v>
+      </c>
+      <c r="S28" t="n">
+        <v>23658.13</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>27073.95</v>
+      </c>
+      <c r="V28" t="n">
+        <v>734766.0199999999</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>27 EURE</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>28 EURE-ET-LOIR</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>29 FINISTERE</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>30 GARD</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>4403</v>
+      </c>
+      <c r="C32" t="n">
+        <v>52666</v>
+      </c>
+      <c r="D32" t="n">
+        <v>19025</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>30604</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3037</v>
+      </c>
+      <c r="H32" t="n">
+        <v>46172.99</v>
+      </c>
+      <c r="I32" t="n">
+        <v>656538.6899999999</v>
+      </c>
+      <c r="J32" t="n">
+        <v>149495.65</v>
+      </c>
+      <c r="K32" t="n">
+        <v>297221.27</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1353481.74</v>
+      </c>
+      <c r="M32" t="n">
+        <v>449468.08</v>
+      </c>
+      <c r="N32" t="n">
+        <v>41047.29</v>
+      </c>
+      <c r="O32" t="n">
+        <v>166506.77</v>
+      </c>
+      <c r="P32" t="n">
+        <v>30342.67</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>384441.55</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2176527.2</v>
+      </c>
+      <c r="S32" t="n">
+        <v>629306.4</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>80289.17</v>
+      </c>
+      <c r="V32" t="n">
+        <v>3270564.319999999</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>31 GARONNE(HTE)</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>537</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1642</v>
+      </c>
+      <c r="D33" t="n">
+        <v>901</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>553</v>
+      </c>
+      <c r="G33" t="n">
+        <v>188</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>23179.04</v>
+      </c>
+      <c r="J33" t="n">
+        <v>14982.39</v>
+      </c>
+      <c r="K33" t="n">
+        <v>562.75</v>
+      </c>
+      <c r="L33" t="n">
+        <v>22466.28</v>
+      </c>
+      <c r="M33" t="n">
+        <v>16006</v>
+      </c>
+      <c r="N33" t="n">
+        <v>154</v>
+      </c>
+      <c r="O33" t="n">
+        <v>5761.35</v>
+      </c>
+      <c r="P33" t="n">
+        <v>384</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>716.75</v>
+      </c>
+      <c r="R33" t="n">
+        <v>51406.67</v>
+      </c>
+      <c r="S33" t="n">
+        <v>31372.39</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2561.25</v>
+      </c>
+      <c r="V33" t="n">
+        <v>86057.06</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>32 GERS</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1699</v>
+      </c>
+      <c r="C34" t="n">
+        <v>18264</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1686</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1712</v>
+      </c>
+      <c r="F34" t="n">
+        <v>11650</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3216</v>
+      </c>
+      <c r="H34" t="n">
+        <v>17461</v>
+      </c>
+      <c r="I34" t="n">
+        <v>59686</v>
+      </c>
+      <c r="J34" t="n">
+        <v>17246</v>
+      </c>
+      <c r="K34" t="n">
+        <v>881929.51</v>
+      </c>
+      <c r="L34" t="n">
+        <v>86749.60000000001</v>
+      </c>
+      <c r="M34" t="n">
+        <v>87100.89</v>
+      </c>
+      <c r="N34" t="n">
+        <v>316535.4</v>
+      </c>
+      <c r="O34" t="n">
+        <v>28871.36</v>
+      </c>
+      <c r="P34" t="n">
+        <v>26669.32</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1215925.91</v>
+      </c>
+      <c r="R34" t="n">
+        <v>175306.96</v>
+      </c>
+      <c r="S34" t="n">
+        <v>131016.21</v>
+      </c>
+      <c r="T34" t="n">
+        <v>160384.96</v>
+      </c>
+      <c r="U34" t="n">
+        <v>20665.21</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1703299.25</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>33 GIRONDE</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>7776</v>
+      </c>
+      <c r="C35" t="n">
+        <v>115348</v>
+      </c>
+      <c r="D35" t="n">
+        <v>112878</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>118</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2352</v>
+      </c>
+      <c r="H35" t="n">
+        <v>564469.64</v>
+      </c>
+      <c r="I35" t="n">
+        <v>4489182.23</v>
+      </c>
+      <c r="J35" t="n">
+        <v>215368</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2793.5</v>
+      </c>
+      <c r="L35" t="n">
+        <v>5742</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3259</v>
+      </c>
+      <c r="N35" t="n">
+        <v>12408.28</v>
+      </c>
+      <c r="O35" t="n">
+        <v>145572.91</v>
+      </c>
+      <c r="P35" t="n">
+        <v>22770.56</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>579671.42</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4640497.140000001</v>
+      </c>
+      <c r="S35" t="n">
+        <v>241397.56</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>160750.63</v>
+      </c>
+      <c r="V35" t="n">
+        <v>5622316.75</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>34 HERAULT</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>9811</v>
+      </c>
+      <c r="C36" t="n">
+        <v>80807</v>
+      </c>
+      <c r="D36" t="n">
+        <v>15283</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>58944</v>
+      </c>
+      <c r="G36" t="n">
+        <v>6580</v>
+      </c>
+      <c r="H36" t="n">
+        <v>109110.05</v>
+      </c>
+      <c r="I36" t="n">
+        <v>388493.46</v>
+      </c>
+      <c r="J36" t="n">
+        <v>79456.95</v>
+      </c>
+      <c r="K36" t="n">
+        <v>766629.26</v>
+      </c>
+      <c r="L36" t="n">
+        <v>2537047.69</v>
+      </c>
+      <c r="M36" t="n">
+        <v>400301.36</v>
+      </c>
+      <c r="N36" t="n">
+        <v>43883.11</v>
+      </c>
+      <c r="O36" t="n">
+        <v>310679.2</v>
+      </c>
+      <c r="P36" t="n">
+        <v>51336.9</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>919622.42</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3236220.35</v>
+      </c>
+      <c r="S36" t="n">
+        <v>531095.21</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>105395.76</v>
+      </c>
+      <c r="V36" t="n">
+        <v>4792333.74</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>35 ILLE-ET-VIL</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>36 INDRE</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>828</v>
+      </c>
+      <c r="C38" t="n">
+        <v>669</v>
+      </c>
+      <c r="D38" t="n">
+        <v>275</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>102</v>
+      </c>
+      <c r="G38" t="n">
+        <v>292</v>
+      </c>
+      <c r="H38" t="n">
+        <v>6007</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2740</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1449</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2131</v>
+      </c>
+      <c r="L38" t="n">
+        <v>2123</v>
+      </c>
+      <c r="M38" t="n">
+        <v>203</v>
+      </c>
+      <c r="N38" t="n">
+        <v>746.95</v>
+      </c>
+      <c r="O38" t="n">
+        <v>2551.57</v>
+      </c>
+      <c r="P38" t="n">
+        <v>738.49</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>8884.950000000001</v>
+      </c>
+      <c r="R38" t="n">
+        <v>7414.57</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2390.49</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>186.35</v>
+      </c>
+      <c r="V38" t="n">
+        <v>18876.36</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>37 INDRE-ET-L</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1711</v>
+      </c>
+      <c r="C39" t="n">
+        <v>10012</v>
+      </c>
+      <c r="D39" t="n">
+        <v>9137</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>139</v>
+      </c>
+      <c r="G39" t="n">
+        <v>736</v>
+      </c>
+      <c r="H39" t="n">
+        <v>128198.51</v>
+      </c>
+      <c r="I39" t="n">
+        <v>192279.62</v>
+      </c>
+      <c r="J39" t="n">
+        <v>30077.81</v>
+      </c>
+      <c r="K39" t="n">
+        <v>879</v>
+      </c>
+      <c r="L39" t="n">
+        <v>2373</v>
+      </c>
+      <c r="M39" t="n">
+        <v>722</v>
+      </c>
+      <c r="N39" t="n">
+        <v>4711.32</v>
+      </c>
+      <c r="O39" t="n">
+        <v>6313.58</v>
+      </c>
+      <c r="P39" t="n">
+        <v>6712.26</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>133788.83</v>
+      </c>
+      <c r="R39" t="n">
+        <v>200966.2</v>
+      </c>
+      <c r="S39" t="n">
+        <v>37512.07</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>8072.47</v>
+      </c>
+      <c r="V39" t="n">
+        <v>380339.5699999999</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>38 ISERE</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1350</v>
+      </c>
+      <c r="C40" t="n">
+        <v>582</v>
+      </c>
+      <c r="D40" t="n">
+        <v>176</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>81</v>
+      </c>
+      <c r="G40" t="n">
+        <v>325</v>
+      </c>
+      <c r="H40" t="n">
+        <v>8852</v>
+      </c>
+      <c r="I40" t="n">
+        <v>543</v>
+      </c>
+      <c r="J40" t="n">
+        <v>113</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1414</v>
+      </c>
+      <c r="M40" t="n">
+        <v>193</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1814.16</v>
+      </c>
+      <c r="O40" t="n">
+        <v>6518.65</v>
+      </c>
+      <c r="P40" t="n">
+        <v>714.7</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>11677.16</v>
+      </c>
+      <c r="R40" t="n">
+        <v>8475.65</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1020.7</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>305.91</v>
+      </c>
+      <c r="V40" t="n">
+        <v>21479.42</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>39 JURA</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1459</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2192</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1993</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>15</v>
+      </c>
+      <c r="G41" t="n">
+        <v>184</v>
+      </c>
+      <c r="H41" t="n">
+        <v>50525.33</v>
+      </c>
+      <c r="I41" t="n">
+        <v>16206.21</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2427</v>
+      </c>
+      <c r="K41" t="n">
+        <v>143</v>
+      </c>
+      <c r="L41" t="n">
+        <v>78</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2277.23</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1746.15</v>
+      </c>
+      <c r="P41" t="n">
+        <v>277.98</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>52945.56</v>
+      </c>
+      <c r="R41" t="n">
+        <v>18030.36</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2704.98</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1011.35</v>
+      </c>
+      <c r="V41" t="n">
+        <v>74692.25000000001</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>40 LANDES</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>534</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1798</v>
+      </c>
+      <c r="D42" t="n">
+        <v>309</v>
+      </c>
+      <c r="E42" t="n">
+        <v>493</v>
+      </c>
+      <c r="F42" t="n">
+        <v>686</v>
+      </c>
+      <c r="G42" t="n">
+        <v>310</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2510.21</v>
+      </c>
+      <c r="I42" t="n">
+        <v>8033</v>
+      </c>
+      <c r="J42" t="n">
+        <v>6250.86</v>
+      </c>
+      <c r="K42" t="n">
+        <v>36753.79</v>
+      </c>
+      <c r="L42" t="n">
+        <v>6327.18</v>
+      </c>
+      <c r="M42" t="n">
+        <v>7804</v>
+      </c>
+      <c r="N42" t="n">
+        <v>15754.15</v>
+      </c>
+      <c r="O42" t="n">
+        <v>2773.15</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1585.55</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>55018.15</v>
+      </c>
+      <c r="R42" t="n">
+        <v>17133.33</v>
+      </c>
+      <c r="S42" t="n">
+        <v>15640.41</v>
+      </c>
+      <c r="T42" t="n">
+        <v>31355.44</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1858.43</v>
+      </c>
+      <c r="V42" t="n">
+        <v>121005.76</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>41 LOIR-ET-CHER</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>853</v>
+      </c>
+      <c r="C43" t="n">
+        <v>6905</v>
+      </c>
+      <c r="D43" t="n">
+        <v>4915</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>982</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1008</v>
+      </c>
+      <c r="H43" t="n">
+        <v>93990.5</v>
+      </c>
+      <c r="I43" t="n">
+        <v>34155.61</v>
+      </c>
+      <c r="J43" t="n">
+        <v>27227.9</v>
+      </c>
+      <c r="K43" t="n">
+        <v>20019.78</v>
+      </c>
+      <c r="L43" t="n">
+        <v>9623.93</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2552.31</v>
+      </c>
+      <c r="N43" t="n">
+        <v>6226.56</v>
+      </c>
+      <c r="O43" t="n">
+        <v>5510.31</v>
+      </c>
+      <c r="P43" t="n">
+        <v>6392.89</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>120236.84</v>
+      </c>
+      <c r="R43" t="n">
+        <v>49289.85</v>
+      </c>
+      <c r="S43" t="n">
+        <v>36173.10000000001</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>3342.33</v>
+      </c>
+      <c r="V43" t="n">
+        <v>209042.12</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>42 LOIRE</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>563</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1044</v>
+      </c>
+      <c r="D44" t="n">
+        <v>679</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>145</v>
+      </c>
+      <c r="G44" t="n">
+        <v>220</v>
+      </c>
+      <c r="H44" t="n">
+        <v>5577.8</v>
+      </c>
+      <c r="I44" t="n">
+        <v>14668.82</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1544</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1944.02</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2769.41</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1910</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2130.08</v>
+      </c>
+      <c r="O44" t="n">
+        <v>4670.66</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1173.56</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>9651.9</v>
+      </c>
+      <c r="R44" t="n">
+        <v>22108.89</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4627.559999999999</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>577.5599999999999</v>
+      </c>
+      <c r="V44" t="n">
+        <v>36965.91</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>43 LOIRE(HAUTE)</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>198</v>
+      </c>
+      <c r="C45" t="n">
+        <v>40</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>40</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>16</v>
+      </c>
+      <c r="O45" t="n">
+        <v>502</v>
+      </c>
+      <c r="P45" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>16</v>
+      </c>
+      <c r="R45" t="n">
+        <v>502</v>
+      </c>
+      <c r="S45" t="n">
+        <v>63</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>44 LOIRE ATLAN</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1447</v>
+      </c>
+      <c r="C46" t="n">
+        <v>12318</v>
+      </c>
+      <c r="D46" t="n">
+        <v>9411</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1397</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1510</v>
+      </c>
+      <c r="H46" t="n">
+        <v>250282.42</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1223</v>
+      </c>
+      <c r="J46" t="n">
+        <v>830</v>
+      </c>
+      <c r="K46" t="n">
+        <v>27829.24</v>
+      </c>
+      <c r="L46" t="n">
+        <v>16090</v>
+      </c>
+      <c r="M46" t="n">
+        <v>18266</v>
+      </c>
+      <c r="N46" t="n">
+        <v>24596.88</v>
+      </c>
+      <c r="O46" t="n">
+        <v>11555.26</v>
+      </c>
+      <c r="P46" t="n">
+        <v>19850.3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>302708.54</v>
+      </c>
+      <c r="R46" t="n">
+        <v>28868.26</v>
+      </c>
+      <c r="S46" t="n">
+        <v>38946.3</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>6056.55</v>
+      </c>
+      <c r="V46" t="n">
+        <v>376579.65</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>45 LOIRET</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>134</v>
+      </c>
+      <c r="C47" t="n">
+        <v>225</v>
+      </c>
+      <c r="D47" t="n">
+        <v>183</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>21</v>
+      </c>
+      <c r="G47" t="n">
+        <v>21</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1779.17</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1317.38</v>
+      </c>
+      <c r="J47" t="n">
+        <v>602</v>
+      </c>
+      <c r="K47" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="L47" t="n">
+        <v>155</v>
+      </c>
+      <c r="M47" t="n">
+        <v>162.5</v>
+      </c>
+      <c r="N47" t="n">
+        <v>78</v>
+      </c>
+      <c r="O47" t="n">
+        <v>286.01</v>
+      </c>
+      <c r="P47" t="n">
+        <v>108.33</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1933.67</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1758.39</v>
+      </c>
+      <c r="S47" t="n">
+        <v>872.83</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>108.53</v>
+      </c>
+      <c r="V47" t="n">
+        <v>4673.42</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>46 LOT</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1455</v>
+      </c>
+      <c r="C48" t="n">
+        <v>5090</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3597</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>740</v>
+      </c>
+      <c r="G48" t="n">
+        <v>753</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>158594.14</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1241</v>
+      </c>
+      <c r="K48" t="n">
+        <v>2192.16</v>
+      </c>
+      <c r="L48" t="n">
+        <v>27825.89</v>
+      </c>
+      <c r="M48" t="n">
+        <v>16430.99</v>
+      </c>
+      <c r="N48" t="n">
+        <v>130</v>
+      </c>
+      <c r="O48" t="n">
+        <v>34513</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2429</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2322.16</v>
+      </c>
+      <c r="R48" t="n">
+        <v>220933.03</v>
+      </c>
+      <c r="S48" t="n">
+        <v>20100.99</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>4595.4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>247951.58</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>47 LOT-ET-GAR</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1767</v>
+      </c>
+      <c r="C49" t="n">
+        <v>6208</v>
+      </c>
+      <c r="D49" t="n">
+        <v>4611</v>
+      </c>
+      <c r="E49" t="n">
+        <v>35</v>
+      </c>
+      <c r="F49" t="n">
+        <v>796</v>
+      </c>
+      <c r="G49" t="n">
+        <v>766</v>
+      </c>
+      <c r="H49" t="n">
+        <v>35569.48</v>
+      </c>
+      <c r="I49" t="n">
+        <v>146861.8</v>
+      </c>
+      <c r="J49" t="n">
+        <v>53490.92</v>
+      </c>
+      <c r="K49" t="n">
+        <v>38232.19</v>
+      </c>
+      <c r="L49" t="n">
+        <v>14779</v>
+      </c>
+      <c r="M49" t="n">
+        <v>11228</v>
+      </c>
+      <c r="N49" t="n">
+        <v>19964.96</v>
+      </c>
+      <c r="O49" t="n">
+        <v>24274.13</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3278.3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>93766.63</v>
+      </c>
+      <c r="R49" t="n">
+        <v>185914.93</v>
+      </c>
+      <c r="S49" t="n">
+        <v>67997.22</v>
+      </c>
+      <c r="T49" t="n">
+        <v>3235</v>
+      </c>
+      <c r="U49" t="n">
+        <v>9170.32</v>
+      </c>
+      <c r="V49" t="n">
+        <v>360084.1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>48 LOZERE</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>14</v>
+      </c>
+      <c r="C50" t="n">
+        <v>5</v>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>5</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>82.92</v>
+      </c>
+      <c r="L50" t="n">
+        <v>144</v>
+      </c>
+      <c r="M50" t="n">
+        <v>30</v>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="n">
+        <v>41</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>82.92</v>
+      </c>
+      <c r="R50" t="n">
+        <v>185</v>
+      </c>
+      <c r="S50" t="n">
+        <v>30</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>303.02</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>49 MAINE-ET-L</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1955</v>
+      </c>
+      <c r="C51" t="n">
+        <v>19520</v>
+      </c>
+      <c r="D51" t="n">
+        <v>17411</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1047</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1062</v>
+      </c>
+      <c r="H51" t="n">
+        <v>209164.46</v>
+      </c>
+      <c r="I51" t="n">
+        <v>140328.01</v>
+      </c>
+      <c r="J51" t="n">
+        <v>400719.63</v>
+      </c>
+      <c r="K51" t="n">
+        <v>27998.4</v>
+      </c>
+      <c r="L51" t="n">
+        <v>11467</v>
+      </c>
+      <c r="M51" t="n">
+        <v>6525</v>
+      </c>
+      <c r="N51" t="n">
+        <v>12971.98</v>
+      </c>
+      <c r="O51" t="n">
+        <v>11059.57</v>
+      </c>
+      <c r="P51" t="n">
+        <v>10069.256</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>250134.84</v>
+      </c>
+      <c r="R51" t="n">
+        <v>162854.58</v>
+      </c>
+      <c r="S51" t="n">
+        <v>417313.886</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>14745.69</v>
+      </c>
+      <c r="V51" t="n">
+        <v>845048.996</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>50 MANCHE</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>51 MARNE</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>12405</v>
+      </c>
+      <c r="C53" t="n">
+        <v>23499</v>
+      </c>
+      <c r="D53" t="n">
+        <v>23494</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>5</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1455220.6</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>60.87</v>
+      </c>
+      <c r="O53" t="n">
+        <v>18</v>
+      </c>
+      <c r="P53" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1455281.47</v>
+      </c>
+      <c r="R53" t="n">
+        <v>18</v>
+      </c>
+      <c r="S53" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>23048.14</v>
+      </c>
+      <c r="V53" t="n">
+        <v>1478364.71</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>52 MARNE(HAUTE)</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>251</v>
+      </c>
+      <c r="C54" t="n">
+        <v>101</v>
+      </c>
+      <c r="D54" t="n">
+        <v>41</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>34</v>
+      </c>
+      <c r="G54" t="n">
+        <v>26</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2362.4</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>505.7</v>
+      </c>
+      <c r="L54" t="n">
+        <v>409</v>
+      </c>
+      <c r="M54" t="n">
+        <v>97</v>
+      </c>
+      <c r="N54" t="n">
+        <v>218.44</v>
+      </c>
+      <c r="O54" t="n">
+        <v>362.41</v>
+      </c>
+      <c r="P54" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3086.54</v>
+      </c>
+      <c r="R54" t="n">
+        <v>771.4100000000001</v>
+      </c>
+      <c r="S54" t="n">
+        <v>108.35</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0</v>
+      </c>
+      <c r="U54" t="n">
+        <v>46.87</v>
+      </c>
+      <c r="V54" t="n">
+        <v>4013.17</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>53 MAYENNE</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>2</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>54 MEURTHE-&amp;-M</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>177</v>
+      </c>
+      <c r="C56" t="n">
+        <v>149</v>
+      </c>
+      <c r="D56" t="n">
+        <v>54</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>95</v>
+      </c>
+      <c r="H56" t="n">
+        <v>328.12</v>
+      </c>
+      <c r="I56" t="n">
+        <v>295</v>
+      </c>
+      <c r="J56" t="n">
+        <v>841</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>216.48</v>
+      </c>
+      <c r="O56" t="n">
+        <v>299.07</v>
+      </c>
+      <c r="P56" t="n">
+        <v>381.42</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>544.6</v>
+      </c>
+      <c r="R56" t="n">
+        <v>594.0699999999999</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1222.42</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>20.92</v>
+      </c>
+      <c r="V56" t="n">
+        <v>2382.01</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>55 MEUSE</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>25</v>
+      </c>
+      <c r="C57" t="n">
+        <v>38</v>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>31</v>
+      </c>
+      <c r="G57" t="n">
+        <v>7</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>325.9</v>
+      </c>
+      <c r="L57" t="n">
+        <v>226</v>
+      </c>
+      <c r="M57" t="n">
+        <v>251</v>
+      </c>
+      <c r="N57" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="O57" t="n">
+        <v>18.16</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>523.4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>244.16</v>
+      </c>
+      <c r="S57" t="n">
+        <v>255</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>1022.56</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>56 MORBIHAN</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>57 MOSELLE</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>97</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="n">
+        <v>22</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>35</v>
+      </c>
+      <c r="H59" t="n">
+        <v>268.4</v>
+      </c>
+      <c r="I59" t="n">
+        <v>200.8</v>
+      </c>
+      <c r="J59" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="O59" t="n">
+        <v>143.55</v>
+      </c>
+      <c r="P59" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>343</v>
+      </c>
+      <c r="R59" t="n">
+        <v>344.35</v>
+      </c>
+      <c r="S59" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>741.65</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>58 NIEVRE</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>429</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1320</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>106</v>
+      </c>
+      <c r="G60" t="n">
+        <v>74</v>
+      </c>
+      <c r="H60" t="n">
+        <v>77786.49000000001</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1966.36</v>
+      </c>
+      <c r="J60" t="n">
+        <v>569.2</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1476.48</v>
+      </c>
+      <c r="L60" t="n">
+        <v>696.4</v>
+      </c>
+      <c r="M60" t="n">
+        <v>181.92</v>
+      </c>
+      <c r="N60" t="n">
+        <v>412.97</v>
+      </c>
+      <c r="O60" t="n">
+        <v>674.64</v>
+      </c>
+      <c r="P60" t="n">
+        <v>227.8</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>79675.94</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3337.4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>978.9200000000001</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>114.93</v>
+      </c>
+      <c r="V60" t="n">
+        <v>84107.18999999999</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>59 NORD</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>4</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="O61" t="n">
+        <v>7</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="R61" t="n">
+        <v>7</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0</v>
+      </c>
+      <c r="V61" t="n">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>60 OISE</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>61 ORNE</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>62 PAS-DE-CAL</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>63 PUY-DE-DOME</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1186</v>
+      </c>
+      <c r="C65" t="n">
+        <v>565</v>
+      </c>
+      <c r="D65" t="n">
+        <v>265</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>76</v>
+      </c>
+      <c r="G65" t="n">
+        <v>224</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1227.58</v>
+      </c>
+      <c r="I65" t="n">
+        <v>5540</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2815</v>
+      </c>
+      <c r="K65" t="n">
+        <v>489</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1868</v>
+      </c>
+      <c r="M65" t="n">
+        <v>823</v>
+      </c>
+      <c r="N65" t="n">
+        <v>229</v>
+      </c>
+      <c r="O65" t="n">
+        <v>4998.8</v>
+      </c>
+      <c r="P65" t="n">
+        <v>657</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1945.58</v>
+      </c>
+      <c r="R65" t="n">
+        <v>12406.8</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4295</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>193.27</v>
+      </c>
+      <c r="V65" t="n">
+        <v>18840.65</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>64 PYRENEES-AT</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>908</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2495</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2264</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>88</v>
+      </c>
+      <c r="G66" t="n">
+        <v>143</v>
+      </c>
+      <c r="H66" t="n">
+        <v>55111</v>
+      </c>
+      <c r="I66" t="n">
+        <v>34635</v>
+      </c>
+      <c r="J66" t="n">
+        <v>6907</v>
+      </c>
+      <c r="K66" t="n">
+        <v>648</v>
+      </c>
+      <c r="L66" t="n">
+        <v>3602</v>
+      </c>
+      <c r="M66" t="n">
+        <v>294</v>
+      </c>
+      <c r="N66" t="n">
+        <v>679.1900000000001</v>
+      </c>
+      <c r="O66" t="n">
+        <v>3942.52</v>
+      </c>
+      <c r="P66" t="n">
+        <v>393</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>56438.19</v>
+      </c>
+      <c r="R66" t="n">
+        <v>42179.52</v>
+      </c>
+      <c r="S66" t="n">
+        <v>7594</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>1727.3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>107939.01</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>65 PYRENEES(HTE)</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>614</v>
+      </c>
+      <c r="C67" t="n">
+        <v>364</v>
+      </c>
+      <c r="D67" t="n">
+        <v>210</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>30</v>
+      </c>
+      <c r="G67" t="n">
+        <v>124</v>
+      </c>
+      <c r="H67" t="n">
+        <v>682</v>
+      </c>
+      <c r="I67" t="n">
+        <v>5742</v>
+      </c>
+      <c r="J67" t="n">
+        <v>221</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1224</v>
+      </c>
+      <c r="M67" t="n">
+        <v>188</v>
+      </c>
+      <c r="N67" t="n">
+        <v>205</v>
+      </c>
+      <c r="O67" t="n">
+        <v>2417.02</v>
+      </c>
+      <c r="P67" t="n">
+        <v>567</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>887</v>
+      </c>
+      <c r="R67" t="n">
+        <v>9383.02</v>
+      </c>
+      <c r="S67" t="n">
+        <v>976</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0</v>
+      </c>
+      <c r="U67" t="n">
+        <v>89.84999999999999</v>
+      </c>
+      <c r="V67" t="n">
+        <v>11335.87</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>66 PYRENEES-OR</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>3009</v>
+      </c>
+      <c r="C68" t="n">
+        <v>23866</v>
+      </c>
+      <c r="D68" t="n">
+        <v>16633</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>6391</v>
+      </c>
+      <c r="G68" t="n">
+        <v>842</v>
+      </c>
+      <c r="H68" t="n">
+        <v>106815.74</v>
+      </c>
+      <c r="I68" t="n">
+        <v>163320.95</v>
+      </c>
+      <c r="J68" t="n">
+        <v>124235.45</v>
+      </c>
+      <c r="K68" t="n">
+        <v>68721.37</v>
+      </c>
+      <c r="L68" t="n">
+        <v>137798.88</v>
+      </c>
+      <c r="M68" t="n">
+        <v>60285.77</v>
+      </c>
+      <c r="N68" t="n">
+        <v>12163.46</v>
+      </c>
+      <c r="O68" t="n">
+        <v>16722.87</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3651.61</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>187700.57</v>
+      </c>
+      <c r="R68" t="n">
+        <v>317842.7</v>
+      </c>
+      <c r="S68" t="n">
+        <v>188172.83</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0</v>
+      </c>
+      <c r="U68" t="n">
+        <v>16364.61</v>
+      </c>
+      <c r="V68" t="n">
+        <v>710080.71</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>67 RHIN(BAS)</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>2513</v>
+      </c>
+      <c r="C69" t="n">
+        <v>6628</v>
+      </c>
+      <c r="D69" t="n">
+        <v>6572</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>56</v>
+      </c>
+      <c r="H69" t="n">
+        <v>460408.98</v>
+      </c>
+      <c r="I69" t="n">
+        <v>4369.01</v>
+      </c>
+      <c r="J69" t="n">
+        <v>22173.73</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>2627.95</v>
+      </c>
+      <c r="O69" t="n">
+        <v>118.47</v>
+      </c>
+      <c r="P69" t="n">
+        <v>64.59999999999999</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>463036.93</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4487.48</v>
+      </c>
+      <c r="S69" t="n">
+        <v>22238.33</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0</v>
+      </c>
+      <c r="U69" t="n">
+        <v>17066.95</v>
+      </c>
+      <c r="V69" t="n">
+        <v>506829.69</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>68 RHIN (HAUT)</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>2660</v>
+      </c>
+      <c r="C70" t="n">
+        <v>8954</v>
+      </c>
+      <c r="D70" t="n">
+        <v>8930</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="n">
+        <v>24</v>
+      </c>
+      <c r="H70" t="n">
+        <v>600595.8</v>
+      </c>
+      <c r="I70" t="n">
+        <v>6084.58</v>
+      </c>
+      <c r="J70" t="n">
+        <v>32732</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>1355.17</v>
+      </c>
+      <c r="O70" t="n">
+        <v>65</v>
+      </c>
+      <c r="P70" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>601950.9700000001</v>
+      </c>
+      <c r="R70" t="n">
+        <v>6149.58</v>
+      </c>
+      <c r="S70" t="n">
+        <v>32783</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0</v>
+      </c>
+      <c r="U70" t="n">
+        <v>22204.01</v>
+      </c>
+      <c r="V70" t="n">
+        <v>663087.5600000001</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>69 RHONE</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>2963</v>
+      </c>
+      <c r="C71" t="n">
+        <v>17515</v>
+      </c>
+      <c r="D71" t="n">
+        <v>17141</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>61</v>
+      </c>
+      <c r="G71" t="n">
+        <v>313</v>
+      </c>
+      <c r="H71" t="n">
+        <v>45172.26</v>
+      </c>
+      <c r="I71" t="n">
+        <v>484974.88</v>
+      </c>
+      <c r="J71" t="n">
+        <v>14631.22</v>
+      </c>
+      <c r="K71" t="n">
+        <v>838.47</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1390.31</v>
+      </c>
+      <c r="M71" t="n">
+        <v>247.28</v>
+      </c>
+      <c r="N71" t="n">
+        <v>1757.9</v>
+      </c>
+      <c r="O71" t="n">
+        <v>3761.46</v>
+      </c>
+      <c r="P71" t="n">
+        <v>1878.79</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>47768.63</v>
+      </c>
+      <c r="R71" t="n">
+        <v>490126.65</v>
+      </c>
+      <c r="S71" t="n">
+        <v>16757.29</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0</v>
+      </c>
+      <c r="U71" t="n">
+        <v>16178.81</v>
+      </c>
+      <c r="V71" t="n">
+        <v>570831.3800000001</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>70 SAONE(HAUTE)</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>279</v>
+      </c>
+      <c r="C72" t="n">
+        <v>117</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>81</v>
+      </c>
+      <c r="G72" t="n">
+        <v>36</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>750</v>
+      </c>
+      <c r="L72" t="n">
+        <v>666</v>
+      </c>
+      <c r="M72" t="n">
+        <v>225</v>
+      </c>
+      <c r="N72" t="n">
+        <v>197.36</v>
+      </c>
+      <c r="O72" t="n">
+        <v>403.57</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>947.36</v>
+      </c>
+      <c r="R72" t="n">
+        <v>1069.57</v>
+      </c>
+      <c r="S72" t="n">
+        <v>229.5</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0</v>
+      </c>
+      <c r="V72" t="n">
+        <v>2246.43</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>71 SAONE-ET-L</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>2339</v>
+      </c>
+      <c r="C73" t="n">
+        <v>12953</v>
+      </c>
+      <c r="D73" t="n">
+        <v>12827</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>15</v>
+      </c>
+      <c r="G73" t="n">
+        <v>111</v>
+      </c>
+      <c r="H73" t="n">
+        <v>437398.78</v>
+      </c>
+      <c r="I73" t="n">
+        <v>158621.24</v>
+      </c>
+      <c r="J73" t="n">
+        <v>3625.23</v>
+      </c>
+      <c r="K73" t="n">
+        <v>71.23999999999999</v>
+      </c>
+      <c r="L73" t="n">
+        <v>42.08</v>
+      </c>
+      <c r="M73" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="N73" t="n">
+        <v>1523.34</v>
+      </c>
+      <c r="O73" t="n">
+        <v>1342.78</v>
+      </c>
+      <c r="P73" t="n">
+        <v>197.62</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>438993.36</v>
+      </c>
+      <c r="R73" t="n">
+        <v>160006.1</v>
+      </c>
+      <c r="S73" t="n">
+        <v>3852.35</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0</v>
+      </c>
+      <c r="U73" t="n">
+        <v>10841.14</v>
+      </c>
+      <c r="V73" t="n">
+        <v>613692.95</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>72 SARTHE</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>301</v>
+      </c>
+      <c r="C74" t="n">
+        <v>252</v>
+      </c>
+      <c r="D74" t="n">
+        <v>140</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>7</v>
+      </c>
+      <c r="G74" t="n">
+        <v>105</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1643.21</v>
+      </c>
+      <c r="I74" t="n">
+        <v>636.4400000000001</v>
+      </c>
+      <c r="J74" t="n">
+        <v>651.01</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>97</v>
+      </c>
+      <c r="M74" t="n">
+        <v>65</v>
+      </c>
+      <c r="N74" t="n">
+        <v>375</v>
+      </c>
+      <c r="O74" t="n">
+        <v>570.33</v>
+      </c>
+      <c r="P74" t="n">
+        <v>228.9</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>2018.21</v>
+      </c>
+      <c r="R74" t="n">
+        <v>1303.77</v>
+      </c>
+      <c r="S74" t="n">
+        <v>944.91</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0</v>
+      </c>
+      <c r="U74" t="n">
+        <v>107.84</v>
+      </c>
+      <c r="V74" t="n">
+        <v>4374.73</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>73 SAVOIE</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1070</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1968</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1729</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>84</v>
+      </c>
+      <c r="G75" t="n">
+        <v>155</v>
+      </c>
+      <c r="H75" t="n">
+        <v>69248</v>
+      </c>
+      <c r="I75" t="n">
+        <v>22275</v>
+      </c>
+      <c r="J75" t="n">
+        <v>7313</v>
+      </c>
+      <c r="K75" t="n">
+        <v>3736</v>
+      </c>
+      <c r="L75" t="n">
+        <v>776</v>
+      </c>
+      <c r="M75" t="n">
+        <v>231</v>
+      </c>
+      <c r="N75" t="n">
+        <v>2380.39</v>
+      </c>
+      <c r="O75" t="n">
+        <v>2542.31</v>
+      </c>
+      <c r="P75" t="n">
+        <v>748.09</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>75364.39</v>
+      </c>
+      <c r="R75" t="n">
+        <v>25593.31</v>
+      </c>
+      <c r="S75" t="n">
+        <v>8292.09</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0</v>
+      </c>
+      <c r="U75" t="n">
+        <v>2049.45</v>
+      </c>
+      <c r="V75" t="n">
+        <v>111299.24</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>74 SAVOIE(HTE)</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>201</v>
+      </c>
+      <c r="C76" t="n">
+        <v>279</v>
+      </c>
+      <c r="D76" t="n">
+        <v>138</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>11</v>
+      </c>
+      <c r="G76" t="n">
+        <v>130</v>
+      </c>
+      <c r="H76" t="n">
+        <v>4786.18</v>
+      </c>
+      <c r="I76" t="n">
+        <v>589</v>
+      </c>
+      <c r="J76" t="n">
+        <v>184</v>
+      </c>
+      <c r="K76" t="n">
+        <v>262.85</v>
+      </c>
+      <c r="L76" t="n">
+        <v>89</v>
+      </c>
+      <c r="M76" t="n">
+        <v>18</v>
+      </c>
+      <c r="N76" t="n">
+        <v>5652.64</v>
+      </c>
+      <c r="O76" t="n">
+        <v>2694.81</v>
+      </c>
+      <c r="P76" t="n">
+        <v>69</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>10701.67</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3372.81</v>
+      </c>
+      <c r="S76" t="n">
+        <v>271</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0</v>
+      </c>
+      <c r="U76" t="n">
+        <v>96.02</v>
+      </c>
+      <c r="V76" t="n">
+        <v>14441.5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>75 PARIS</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>76 SEINE-MAR</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>77 SEINE ET MARNE</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>9</v>
+      </c>
+      <c r="C79" t="n">
+        <v>22</v>
+      </c>
+      <c r="D79" t="n">
+        <v>22</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1280.09</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>1280.09</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0</v>
+      </c>
+      <c r="U79" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="V79" t="n">
+        <v>1292.1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>78 YVELINES</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0</v>
+      </c>
+      <c r="T80" t="n">
+        <v>0</v>
+      </c>
+      <c r="U80" t="n">
+        <v>0</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>79 SEVRES(DEUX)</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1520</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1021</v>
+      </c>
+      <c r="D81" t="n">
+        <v>659</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>72</v>
+      </c>
+      <c r="G81" t="n">
+        <v>290</v>
+      </c>
+      <c r="H81" t="n">
+        <v>11191.53</v>
+      </c>
+      <c r="I81" t="n">
+        <v>2348</v>
+      </c>
+      <c r="J81" t="n">
+        <v>22315</v>
+      </c>
+      <c r="K81" t="n">
+        <v>808</v>
+      </c>
+      <c r="L81" t="n">
+        <v>255</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>689.42</v>
+      </c>
+      <c r="O81" t="n">
+        <v>6769.44</v>
+      </c>
+      <c r="P81" t="n">
+        <v>493.1</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>12688.95</v>
+      </c>
+      <c r="R81" t="n">
+        <v>9372.439999999999</v>
+      </c>
+      <c r="S81" t="n">
+        <v>22808.1</v>
+      </c>
+      <c r="T81" t="n">
+        <v>0</v>
+      </c>
+      <c r="U81" t="n">
+        <v>574.45</v>
+      </c>
+      <c r="V81" t="n">
+        <v>45443.94</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>80 SOMME</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0</v>
+      </c>
+      <c r="T82" t="n">
+        <v>0</v>
+      </c>
+      <c r="U82" t="n">
+        <v>0</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>81 TARN</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>881</v>
+      </c>
+      <c r="C83" t="n">
+        <v>6664</v>
+      </c>
+      <c r="D83" t="n">
+        <v>2961</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2578</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1125</v>
+      </c>
+      <c r="H83" t="n">
+        <v>40102.85</v>
+      </c>
+      <c r="I83" t="n">
+        <v>71942.13</v>
+      </c>
+      <c r="J83" t="n">
+        <v>19951.22</v>
+      </c>
+      <c r="K83" t="n">
+        <v>53344.73</v>
+      </c>
+      <c r="L83" t="n">
+        <v>110185.89</v>
+      </c>
+      <c r="M83" t="n">
+        <v>34625.58</v>
+      </c>
+      <c r="N83" t="n">
+        <v>26786.35</v>
+      </c>
+      <c r="O83" t="n">
+        <v>37407.67</v>
+      </c>
+      <c r="P83" t="n">
+        <v>14892.05</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>120233.93</v>
+      </c>
+      <c r="R83" t="n">
+        <v>219535.69</v>
+      </c>
+      <c r="S83" t="n">
+        <v>69468.85000000001</v>
+      </c>
+      <c r="T83" t="n">
+        <v>0</v>
+      </c>
+      <c r="U83" t="n">
+        <v>8253.85</v>
+      </c>
+      <c r="V83" t="n">
+        <v>417492.3199999999</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>82 TARN-ET-G</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>790</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1631</v>
+      </c>
+      <c r="D84" t="n">
+        <v>687</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>486</v>
+      </c>
+      <c r="G84" t="n">
+        <v>458</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>19398.68</v>
+      </c>
+      <c r="J84" t="n">
+        <v>13153.62</v>
+      </c>
+      <c r="K84" t="n">
+        <v>1295</v>
+      </c>
+      <c r="L84" t="n">
+        <v>20340.89</v>
+      </c>
+      <c r="M84" t="n">
+        <v>13084.34</v>
+      </c>
+      <c r="N84" t="n">
+        <v>495</v>
+      </c>
+      <c r="O84" t="n">
+        <v>13460.39</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4397.82</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>1790</v>
+      </c>
+      <c r="R84" t="n">
+        <v>53199.96</v>
+      </c>
+      <c r="S84" t="n">
+        <v>30635.78</v>
+      </c>
+      <c r="T84" t="n">
+        <v>0</v>
+      </c>
+      <c r="U84" t="n">
+        <v>1953.02</v>
+      </c>
+      <c r="V84" t="n">
+        <v>87578.75999999999</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>83 VAR</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>3702</v>
+      </c>
+      <c r="C85" t="n">
+        <v>28161</v>
+      </c>
+      <c r="D85" t="n">
+        <v>21834</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>5861</v>
+      </c>
+      <c r="G85" t="n">
+        <v>466</v>
+      </c>
+      <c r="H85" t="n">
+        <v>34686.44</v>
+      </c>
+      <c r="I85" t="n">
+        <v>85875.69</v>
+      </c>
+      <c r="J85" t="n">
+        <v>823362.01</v>
+      </c>
+      <c r="K85" t="n">
+        <v>20007</v>
+      </c>
+      <c r="L85" t="n">
+        <v>61077.99</v>
+      </c>
+      <c r="M85" t="n">
+        <v>182959.83</v>
+      </c>
+      <c r="N85" t="n">
+        <v>1381.69</v>
+      </c>
+      <c r="O85" t="n">
+        <v>7009.71</v>
+      </c>
+      <c r="P85" t="n">
+        <v>13061.72</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>56075.13</v>
+      </c>
+      <c r="R85" t="n">
+        <v>153963.39</v>
+      </c>
+      <c r="S85" t="n">
+        <v>1019383.56</v>
+      </c>
+      <c r="T85" t="n">
+        <v>0</v>
+      </c>
+      <c r="U85" t="n">
+        <v>39181.46</v>
+      </c>
+      <c r="V85" t="n">
+        <v>1268603.54</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>84 VAUCLUSE</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>4395</v>
+      </c>
+      <c r="C86" t="n">
+        <v>46890</v>
+      </c>
+      <c r="D86" t="n">
+        <v>36945</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>8252</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1693</v>
+      </c>
+      <c r="H86" t="n">
+        <v>82505.64999999999</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1157873.64</v>
+      </c>
+      <c r="J86" t="n">
+        <v>152301.12</v>
+      </c>
+      <c r="K86" t="n">
+        <v>64908.82</v>
+      </c>
+      <c r="L86" t="n">
+        <v>232346.66</v>
+      </c>
+      <c r="M86" t="n">
+        <v>140975.74</v>
+      </c>
+      <c r="N86" t="n">
+        <v>20226.47</v>
+      </c>
+      <c r="O86" t="n">
+        <v>32880.13</v>
+      </c>
+      <c r="P86" t="n">
+        <v>17494.53</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>167640.94</v>
+      </c>
+      <c r="R86" t="n">
+        <v>1423100.43</v>
+      </c>
+      <c r="S86" t="n">
+        <v>310771.39</v>
+      </c>
+      <c r="T86" t="n">
+        <v>0</v>
+      </c>
+      <c r="U86" t="n">
+        <v>54176.35</v>
+      </c>
+      <c r="V86" t="n">
+        <v>1955689.11</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>85 VENDEE</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>4176</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1457</v>
+      </c>
+      <c r="D87" t="n">
+        <v>518</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>247</v>
+      </c>
+      <c r="G87" t="n">
+        <v>692</v>
+      </c>
+      <c r="H87" t="n">
+        <v>4538.22</v>
+      </c>
+      <c r="I87" t="n">
+        <v>5694.97</v>
+      </c>
+      <c r="J87" t="n">
+        <v>6273.79</v>
+      </c>
+      <c r="K87" t="n">
+        <v>2219.92</v>
+      </c>
+      <c r="L87" t="n">
+        <v>2540</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2900</v>
+      </c>
+      <c r="N87" t="n">
+        <v>2539.01</v>
+      </c>
+      <c r="O87" t="n">
+        <v>8419.620000000001</v>
+      </c>
+      <c r="P87" t="n">
+        <v>9969.280000000001</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>9297.150000000001</v>
+      </c>
+      <c r="R87" t="n">
+        <v>16654.59</v>
+      </c>
+      <c r="S87" t="n">
+        <v>19143.07</v>
+      </c>
+      <c r="T87" t="n">
+        <v>0</v>
+      </c>
+      <c r="U87" t="n">
+        <v>770.74</v>
+      </c>
+      <c r="V87" t="n">
+        <v>45865.55</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>86 VIENNE</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>2413</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1614</v>
+      </c>
+      <c r="D88" t="n">
+        <v>584</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>443</v>
+      </c>
+      <c r="G88" t="n">
+        <v>587</v>
+      </c>
+      <c r="H88" t="n">
+        <v>13685</v>
+      </c>
+      <c r="I88" t="n">
+        <v>5549</v>
+      </c>
+      <c r="J88" t="n">
+        <v>8128</v>
+      </c>
+      <c r="K88" t="n">
+        <v>13783</v>
+      </c>
+      <c r="L88" t="n">
+        <v>3999</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2267</v>
+      </c>
+      <c r="N88" t="n">
+        <v>1292.99</v>
+      </c>
+      <c r="O88" t="n">
+        <v>9042.809999999999</v>
+      </c>
+      <c r="P88" t="n">
+        <v>575.73</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>28760.99</v>
+      </c>
+      <c r="R88" t="n">
+        <v>18590.81</v>
+      </c>
+      <c r="S88" t="n">
+        <v>10970.73</v>
+      </c>
+      <c r="T88" t="n">
+        <v>0</v>
+      </c>
+      <c r="U88" t="n">
+        <v>639.27</v>
+      </c>
+      <c r="V88" t="n">
+        <v>58961.8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>87 VIENNE(HTE)</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>14</v>
+      </c>
+      <c r="C89" t="n">
+        <v>7</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>5</v>
+      </c>
+      <c r="G89" t="n">
+        <v>2</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>238</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="n">
+        <v>22</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
+      <c r="R89" t="n">
+        <v>22</v>
+      </c>
+      <c r="S89" t="n">
+        <v>238</v>
+      </c>
+      <c r="T89" t="n">
+        <v>0</v>
+      </c>
+      <c r="U89" t="n">
+        <v>20</v>
+      </c>
+      <c r="V89" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>88 VOSGES</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>249</v>
+      </c>
+      <c r="C90" t="n">
+        <v>81</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>81</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>18</v>
+      </c>
+      <c r="O90" t="n">
+        <v>402.71</v>
+      </c>
+      <c r="P90" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>18</v>
+      </c>
+      <c r="R90" t="n">
+        <v>402.71</v>
+      </c>
+      <c r="S90" t="n">
+        <v>2</v>
+      </c>
+      <c r="T90" t="n">
+        <v>0</v>
+      </c>
+      <c r="U90" t="n">
+        <v>0</v>
+      </c>
+      <c r="V90" t="n">
+        <v>422.71</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>89 YONNE</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1140</v>
+      </c>
+      <c r="C91" t="n">
+        <v>7150</v>
+      </c>
+      <c r="D91" t="n">
+        <v>7085</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>4</v>
+      </c>
+      <c r="G91" t="n">
+        <v>61</v>
+      </c>
+      <c r="H91" t="n">
+        <v>346018.04</v>
+      </c>
+      <c r="I91" t="n">
+        <v>22479.76</v>
+      </c>
+      <c r="J91" t="n">
+        <v>2368</v>
+      </c>
+      <c r="K91" t="n">
+        <v>66</v>
+      </c>
+      <c r="L91" t="n">
+        <v>142</v>
+      </c>
+      <c r="M91" t="n">
+        <v>24</v>
+      </c>
+      <c r="N91" t="n">
+        <v>471.87</v>
+      </c>
+      <c r="O91" t="n">
+        <v>1030.39</v>
+      </c>
+      <c r="P91" t="n">
+        <v>208</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>346555.91</v>
+      </c>
+      <c r="R91" t="n">
+        <v>23652.15</v>
+      </c>
+      <c r="S91" t="n">
+        <v>2600</v>
+      </c>
+      <c r="T91" t="n">
+        <v>0</v>
+      </c>
+      <c r="U91" t="n">
+        <v>8316.98</v>
+      </c>
+      <c r="V91" t="n">
+        <v>381125.04</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>90 T. de BELFORT</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>2</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>3</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0</v>
+      </c>
+      <c r="S92" t="n">
+        <v>0</v>
+      </c>
+      <c r="T92" t="n">
+        <v>0</v>
+      </c>
+      <c r="U92" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>91 ESSONNE</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0</v>
+      </c>
+      <c r="S93" t="n">
+        <v>0</v>
+      </c>
+      <c r="T93" t="n">
+        <v>0</v>
+      </c>
+      <c r="U93" t="inlineStr"/>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>92 HAUTS-DE-S</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
+      <c r="S94" t="n">
+        <v>0</v>
+      </c>
+      <c r="T94" t="n">
+        <v>0</v>
+      </c>
+      <c r="U94" t="inlineStr"/>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>93 SEINE-ST-D</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
+      <c r="S95" t="n">
+        <v>0</v>
+      </c>
+      <c r="T95" t="n">
+        <v>0</v>
+      </c>
+      <c r="U95" t="inlineStr"/>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>94 VAL-DE-MARNE</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0</v>
+      </c>
+      <c r="S96" t="n">
+        <v>0</v>
+      </c>
+      <c r="T96" t="n">
+        <v>0</v>
+      </c>
+      <c r="U96" t="inlineStr"/>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>95 VAL-D'OISE</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0</v>
+      </c>
+      <c r="S97" t="n">
+        <v>0</v>
+      </c>
+      <c r="T97" t="n">
+        <v>0</v>
+      </c>
+      <c r="U97" t="inlineStr"/>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
